--- a/16 - Studium Brownova pohybu/Data/Studium Brownova pohybu.xlsx
+++ b/16 - Studium Brownova pohybu/Data/Studium Brownova pohybu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\Praktikum-I\16 - Brownův pohyb\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\Praktikum-I\16 - Studium Brownova pohybu\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFDFEC5-4A34-48A3-9AE5-C3278605DDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE34B6F8-68AF-488A-BDE0-19D55DF6C3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A7A75C43-FC8D-4F84-AD7C-91DFC23AC204}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Střední kvadratické posunutí</t>
   </si>
@@ -46,18 +46,40 @@
   <si>
     <t>Aktivita Brownova pohybu</t>
   </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>N_A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -81,8 +103,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -417,19 +442,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF483E8-7582-4DFF-817F-A7D8949373DF}">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24.5546875" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -439,8 +465,23 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>19.5</v>
       </c>
@@ -448,11 +489,27 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <f>B3/(C3*2)</f>
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f>B3/(C3*2)/10^(12)</f>
+        <v>1.95E-12</v>
+      </c>
+      <c r="F3">
+        <v>8.3140000000000001</v>
+      </c>
+      <c r="G3">
+        <v>296.5</v>
+      </c>
+      <c r="H3">
+        <v>1E-3</v>
+      </c>
+      <c r="I3">
+        <v>2.16E-7</v>
+      </c>
+      <c r="J3">
+        <f>($F$3*$G$3)/(3*PI()*$H$3*$I$3*D3)</f>
+        <v>6.2097658969733187E+23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>16.600000000000001</v>
       </c>
@@ -460,11 +517,15 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D8" si="0">B4/(C4*2)</f>
-        <v>1.6600000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f>B4/(C4*2)/10^(12)</f>
+        <v>1.6600000000000002E-12</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J8" si="0">($F$3*$G$3)/(3*PI()*$H$3*$I$3*D4)</f>
+        <v>7.294604517528898E+23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>23.4</v>
       </c>
@@ -472,11 +533,15 @@
         <v>5</v>
       </c>
       <c r="D5">
+        <f>B5/(C5*2)/10^(12)</f>
+        <v>2.3399999999999997E-12</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="0"/>
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5.1748049141444325E+23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>17.899999999999999</v>
       </c>
@@ -484,11 +549,15 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1.7899999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f>B6/(C6*2)/10^(12)</f>
+        <v>1.7899999999999998E-12</v>
+      </c>
+      <c r="J6">
+        <f>($F$3*$G$3)/(3*PI()*$H$3*$I$3*D6)</f>
+        <v>6.7648287704457953E+23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>17.7</v>
       </c>
@@ -496,11 +565,15 @@
         <v>5</v>
       </c>
       <c r="D7">
+        <f>B7/(C7*2)/10^(12)</f>
+        <v>1.7699999999999999E-12</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="0"/>
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6.8412675136146738E+23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>27.7</v>
       </c>
@@ -508,11 +581,140 @@
         <v>5</v>
       </c>
       <c r="D8">
+        <f>B8/(C8*2)/10^(12)</f>
+        <v>2.7700000000000001E-12</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="0"/>
-        <v>2.77</v>
+        <v>4.3714958480498094E+23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="1">
+        <v>436</v>
+      </c>
+      <c r="J16" s="1">
+        <v>426</v>
+      </c>
+      <c r="K16" s="1">
+        <v>410</v>
+      </c>
+      <c r="L16" s="1">
+        <v>420</v>
+      </c>
+      <c r="M16" s="1">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="17" spans="9:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="9:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="1">
+        <v>427</v>
+      </c>
+      <c r="J18" s="1">
+        <v>473</v>
+      </c>
+      <c r="K18" s="1">
+        <v>443</v>
+      </c>
+      <c r="L18" s="1">
+        <v>436</v>
+      </c>
+      <c r="M18" s="1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="19" spans="9:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="9:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="1">
+        <v>430</v>
+      </c>
+      <c r="J20" s="1">
+        <v>434</v>
+      </c>
+      <c r="K20" s="1">
+        <v>426</v>
+      </c>
+      <c r="L20" s="1">
+        <v>448</v>
+      </c>
+      <c r="M20" s="1">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="21" spans="9:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="9:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="1">
+        <v>421</v>
+      </c>
+      <c r="J22" s="1">
+        <v>443</v>
+      </c>
+      <c r="K22" s="1">
+        <v>432</v>
+      </c>
+      <c r="L22" s="1">
+        <v>440</v>
+      </c>
+      <c r="M22" s="1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="23" spans="9:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="27" spans="9:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <f>SUM(I16:M23)/20/2</f>
+        <v>216.25</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>